--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CEFET-MG\IPB\Visão por Computador\trabalho-visao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E862023C-646B-44C1-9F2C-B4C924F1A5C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6227F6CD-45EF-48B7-8734-7F185FEB9AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4B0A45B8-0DB3-4C4D-B6A8-CDE269237F80}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7310C03F-CC3F-4236-80D8-873C881518CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="762">
   <si>
     <t>Imagem</t>
   </si>
@@ -44,33 +44,234 @@
     <t>Resultado</t>
   </si>
   <si>
+    <t>0001_E_V_105_C.jpg</t>
+  </si>
+  <si>
+    <t>Limão com mofo</t>
+  </si>
+  <si>
+    <t>0001_E_V_120_C.jpg</t>
+  </si>
+  <si>
+    <t>0001_E_V_135_C.jpg</t>
+  </si>
+  <si>
+    <t>0001_E_V_165_C.jpg</t>
+  </si>
+  <si>
+    <t>Limão com boa qualidade</t>
+  </si>
+  <si>
+    <t>0001_E_V_90_D.jpg</t>
+  </si>
+  <si>
+    <t>0001_F_H_105_C.jpg</t>
+  </si>
+  <si>
+    <t>0001_F_H_120_C.jpg</t>
+  </si>
+  <si>
+    <t>0001_F_H_135_C.jpg</t>
+  </si>
+  <si>
+    <t>0001_F_H_150_C.jpg</t>
+  </si>
+  <si>
+    <t>0001_F_H_15_C.jpg</t>
+  </si>
+  <si>
+    <t>0001_F_H_165_C.jpg</t>
+  </si>
+  <si>
+    <t>0001_F_H_30_C.jpg</t>
+  </si>
+  <si>
+    <t>0001_F_H_45_C.jpg</t>
+  </si>
+  <si>
+    <t>0001_F_H_60_C.jpg</t>
+  </si>
+  <si>
+    <t>0001_F_H_75_C.jpg</t>
+  </si>
+  <si>
+    <t>0001_F_H_90_C.jpg</t>
+  </si>
+  <si>
+    <t>0001_F_I_0_C.jpg</t>
+  </si>
+  <si>
+    <t>0001_F_I_105_C.jpg</t>
+  </si>
+  <si>
+    <t>0001_F_I_120_C.jpg</t>
+  </si>
+  <si>
+    <t>0001_F_I_135_C.jpg</t>
+  </si>
+  <si>
+    <t>0001_F_I_150_C.jpg</t>
+  </si>
+  <si>
+    <t>0001_F_I_15_C.jpg</t>
+  </si>
+  <si>
+    <t>0001_F_I_165_C.jpg</t>
+  </si>
+  <si>
+    <t>0001_F_I_30_C.jpg</t>
+  </si>
+  <si>
+    <t>0001_F_I_45_C.jpg</t>
+  </si>
+  <si>
+    <t>0001_F_I_60_C.jpg</t>
+  </si>
+  <si>
+    <t>0001_F_I_75_C.jpg</t>
+  </si>
+  <si>
+    <t>0001_F_I_90_C.jpg</t>
+  </si>
+  <si>
     <t>0001_F_V_0_C.jpg</t>
   </si>
   <si>
-    <t>Limão com boa qualidade</t>
+    <t>0001_F_V_105_C.jpg</t>
+  </si>
+  <si>
+    <t>0001_F_V_120_C.jpg</t>
+  </si>
+  <si>
+    <t>0001_F_V_135_C.jpg</t>
+  </si>
+  <si>
+    <t>0001_F_V_150_C.jpg</t>
   </si>
   <si>
     <t>0001_F_V_15_C.jpg</t>
   </si>
   <si>
+    <t>0001_F_V_165_C.jpg</t>
+  </si>
+  <si>
     <t>0001_F_V_30_C.jpg</t>
   </si>
   <si>
+    <t>0001_F_V_45_C.jpg</t>
+  </si>
+  <si>
+    <t>0001_F_V_60_C.jpg</t>
+  </si>
+  <si>
     <t>0001_F_V_75_C.jpg</t>
   </si>
   <si>
     <t>0001_F_V_90_C.jpg</t>
   </si>
   <si>
+    <t>0001_G_H_0_A.jpg</t>
+  </si>
+  <si>
+    <t>0001_G_H_105_A.jpg</t>
+  </si>
+  <si>
+    <t>0001_G_H_120_A.jpg</t>
+  </si>
+  <si>
+    <t>0001_G_H_135_A.jpg</t>
+  </si>
+  <si>
+    <t>0001_G_H_150_A.jpg</t>
+  </si>
+  <si>
+    <t>0001_G_H_15_A.jpg</t>
+  </si>
+  <si>
+    <t>0001_G_H_165_A.jpg</t>
+  </si>
+  <si>
+    <t>0001_G_H_30_A.jpg</t>
+  </si>
+  <si>
+    <t>0001_G_H_45_A.jpg</t>
+  </si>
+  <si>
+    <t>0001_G_H_60_A.jpg</t>
+  </si>
+  <si>
+    <t>0001_G_H_75_A.jpg</t>
+  </si>
+  <si>
+    <t>0001_G_H_90_A.jpg</t>
+  </si>
+  <si>
+    <t>0001_G_I_0_A.jpg</t>
+  </si>
+  <si>
+    <t>0001_G_I_105_A.jpg</t>
+  </si>
+  <si>
+    <t>0001_G_I_120_A.jpg</t>
+  </si>
+  <si>
+    <t>0001_G_I_135_A.jpg</t>
+  </si>
+  <si>
     <t>0001_G_I_150_A.jpg</t>
   </si>
   <si>
-    <t>Limão com mofo</t>
+    <t>0001_G_I_15_A.jpg</t>
   </si>
   <si>
     <t>0001_G_I_165_A.jpg</t>
   </si>
   <si>
+    <t>0001_G_I_30_A.jpg</t>
+  </si>
+  <si>
+    <t>0001_G_I_45_A.jpg</t>
+  </si>
+  <si>
+    <t>0001_G_I_60_A.jpg</t>
+  </si>
+  <si>
+    <t>0001_G_I_75_A.jpg</t>
+  </si>
+  <si>
+    <t>0001_G_I_90_A.jpg</t>
+  </si>
+  <si>
+    <t>0001_G_V_0_A.jpg</t>
+  </si>
+  <si>
+    <t>0001_G_V_105_A.jpg</t>
+  </si>
+  <si>
+    <t>0001_G_V_120_A.jpg</t>
+  </si>
+  <si>
+    <t>0001_G_V_135_A.jpg</t>
+  </si>
+  <si>
+    <t>0001_G_V_15_A.jpg</t>
+  </si>
+  <si>
+    <t>0001_G_V_30_A.jpg</t>
+  </si>
+  <si>
+    <t>0001_G_V_45_A.jpg</t>
+  </si>
+  <si>
+    <t>0001_G_V_60_A.jpg</t>
+  </si>
+  <si>
+    <t>0001_G_V_75_A.jpg</t>
+  </si>
+  <si>
+    <t>0001_G_V_90_A.jpg</t>
+  </si>
+  <si>
     <t>0002_F_H_75_C.jpg</t>
   </si>
   <si>
@@ -1157,6 +1358,12 @@
     <t>bad_quality_292.jpg</t>
   </si>
   <si>
+    <t>bad_quality_36.jpg</t>
+  </si>
+  <si>
+    <t>bad_quality_37.jpg</t>
+  </si>
+  <si>
     <t>bad_quality_379.jpg</t>
   </si>
   <si>
@@ -1214,12 +1421,18 @@
     <t>bad_quality_62.jpg</t>
   </si>
   <si>
+    <t>bad_quality_63.jpg</t>
+  </si>
+  <si>
     <t>bad_quality_64.jpg</t>
   </si>
   <si>
     <t>bad_quality_644.jpg</t>
   </si>
   <si>
+    <t>bad_quality_65.jpg</t>
+  </si>
+  <si>
     <t>bad_quality_654.jpg</t>
   </si>
   <si>
@@ -1283,9 +1496,15 @@
     <t>bad_quality_858.jpg</t>
   </si>
   <si>
+    <t>bad_quality_86.jpg</t>
+  </si>
+  <si>
     <t>bad_quality_860.jpg</t>
   </si>
   <si>
+    <t>bad_quality_87.jpg</t>
+  </si>
+  <si>
     <t>bad_quality_882.jpg</t>
   </si>
   <si>
@@ -1295,6 +1514,9 @@
     <t>bad_quality_939.jpg</t>
   </si>
   <si>
+    <t>bad_quality_98.jpg</t>
+  </si>
+  <si>
     <t>empty_background_10.jpg</t>
   </si>
   <si>
@@ -1781,7 +2003,25 @@
     <t>good_quality_317.jpg</t>
   </si>
   <si>
+    <t>good_quality_32.jpg</t>
+  </si>
+  <si>
+    <t>good_quality_33.jpg</t>
+  </si>
+  <si>
     <t>good_quality_336.jpg</t>
+  </si>
+  <si>
+    <t>good_quality_34.jpg</t>
+  </si>
+  <si>
+    <t>good_quality_35.jpg</t>
+  </si>
+  <si>
+    <t>good_quality_36.jpg</t>
+  </si>
+  <si>
+    <t>good_quality_37.jpg</t>
   </si>
   <si>
     <t>good_quality_374.jpg</t>
@@ -2088,7 +2328,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2114,14 +2361,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2452,27 +2705,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C99288D5-2F19-44A2-875B-B5C9D740AAB2}">
-  <dimension ref="A1:B678"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F396ADE-B8D9-4D80-9139-13FE79711B82}">
+  <dimension ref="A1:G758"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2480,7 +2735,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2488,236 +2743,248 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -2725,7 +2992,7 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -2733,7 +3000,7 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -2741,7 +3008,7 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -2749,7 +3016,7 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -2757,7 +3024,7 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -2765,7 +3032,7 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -2773,7 +3040,7 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -2781,7 +3048,7 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -2789,7 +3056,7 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -2821,7 +3088,7 @@
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -2829,7 +3096,7 @@
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -2845,7 +3112,7 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -2893,7 +3160,7 @@
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -2901,7 +3168,7 @@
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -2933,7 +3200,7 @@
         <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -2949,7 +3216,7 @@
         <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -2957,7 +3224,7 @@
         <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -2965,7 +3232,7 @@
         <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -2973,7 +3240,7 @@
         <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -2981,7 +3248,7 @@
         <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -2989,7 +3256,7 @@
         <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -3021,7 +3288,7 @@
         <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -3029,7 +3296,7 @@
         <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -3069,7 +3336,7 @@
         <v>78</v>
       </c>
       <c r="B76" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -3077,7 +3344,7 @@
         <v>79</v>
       </c>
       <c r="B77" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -3085,7 +3352,7 @@
         <v>80</v>
       </c>
       <c r="B78" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -3093,7 +3360,7 @@
         <v>81</v>
       </c>
       <c r="B79" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -3117,7 +3384,7 @@
         <v>84</v>
       </c>
       <c r="B82" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -3125,7 +3392,7 @@
         <v>85</v>
       </c>
       <c r="B83" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -3133,7 +3400,7 @@
         <v>86</v>
       </c>
       <c r="B84" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -3141,7 +3408,7 @@
         <v>87</v>
       </c>
       <c r="B85" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -3149,7 +3416,7 @@
         <v>88</v>
       </c>
       <c r="B86" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -3157,7 +3424,7 @@
         <v>89</v>
       </c>
       <c r="B87" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -3165,7 +3432,7 @@
         <v>90</v>
       </c>
       <c r="B88" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -3173,7 +3440,7 @@
         <v>91</v>
       </c>
       <c r="B89" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -3181,7 +3448,7 @@
         <v>92</v>
       </c>
       <c r="B90" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -3189,7 +3456,7 @@
         <v>93</v>
       </c>
       <c r="B91" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -3197,7 +3464,7 @@
         <v>94</v>
       </c>
       <c r="B92" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -3205,7 +3472,7 @@
         <v>95</v>
       </c>
       <c r="B93" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -3213,7 +3480,7 @@
         <v>96</v>
       </c>
       <c r="B94" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -3221,7 +3488,7 @@
         <v>97</v>
       </c>
       <c r="B95" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -3229,7 +3496,7 @@
         <v>98</v>
       </c>
       <c r="B96" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -3237,7 +3504,7 @@
         <v>99</v>
       </c>
       <c r="B97" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -3245,7 +3512,7 @@
         <v>100</v>
       </c>
       <c r="B98" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -3253,7 +3520,7 @@
         <v>101</v>
       </c>
       <c r="B99" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -3261,7 +3528,7 @@
         <v>102</v>
       </c>
       <c r="B100" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -3269,7 +3536,7 @@
         <v>103</v>
       </c>
       <c r="B101" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -3277,7 +3544,7 @@
         <v>104</v>
       </c>
       <c r="B102" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -3285,7 +3552,7 @@
         <v>105</v>
       </c>
       <c r="B103" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -3293,7 +3560,7 @@
         <v>106</v>
       </c>
       <c r="B104" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -3301,7 +3568,7 @@
         <v>107</v>
       </c>
       <c r="B105" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -3309,7 +3576,7 @@
         <v>108</v>
       </c>
       <c r="B106" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -3317,7 +3584,7 @@
         <v>109</v>
       </c>
       <c r="B107" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -3325,7 +3592,7 @@
         <v>110</v>
       </c>
       <c r="B108" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -3333,7 +3600,7 @@
         <v>111</v>
       </c>
       <c r="B109" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -3341,7 +3608,7 @@
         <v>112</v>
       </c>
       <c r="B110" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -3349,7 +3616,7 @@
         <v>113</v>
       </c>
       <c r="B111" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -3357,7 +3624,7 @@
         <v>114</v>
       </c>
       <c r="B112" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -3365,7 +3632,7 @@
         <v>115</v>
       </c>
       <c r="B113" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -3373,7 +3640,7 @@
         <v>116</v>
       </c>
       <c r="B114" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -3381,7 +3648,7 @@
         <v>117</v>
       </c>
       <c r="B115" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -3389,7 +3656,7 @@
         <v>118</v>
       </c>
       <c r="B116" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -3397,7 +3664,7 @@
         <v>119</v>
       </c>
       <c r="B117" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -3405,7 +3672,7 @@
         <v>120</v>
       </c>
       <c r="B118" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -3413,7 +3680,7 @@
         <v>121</v>
       </c>
       <c r="B119" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -3421,7 +3688,7 @@
         <v>122</v>
       </c>
       <c r="B120" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -3429,7 +3696,7 @@
         <v>123</v>
       </c>
       <c r="B121" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -3437,7 +3704,7 @@
         <v>124</v>
       </c>
       <c r="B122" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -3445,7 +3712,7 @@
         <v>125</v>
       </c>
       <c r="B123" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -3453,7 +3720,7 @@
         <v>126</v>
       </c>
       <c r="B124" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -3461,7 +3728,7 @@
         <v>127</v>
       </c>
       <c r="B125" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -3469,7 +3736,7 @@
         <v>128</v>
       </c>
       <c r="B126" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -3477,7 +3744,7 @@
         <v>129</v>
       </c>
       <c r="B127" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -3485,7 +3752,7 @@
         <v>130</v>
       </c>
       <c r="B128" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -3493,7 +3760,7 @@
         <v>131</v>
       </c>
       <c r="B129" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -3501,7 +3768,7 @@
         <v>132</v>
       </c>
       <c r="B130" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -3509,7 +3776,7 @@
         <v>133</v>
       </c>
       <c r="B131" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -3517,7 +3784,7 @@
         <v>134</v>
       </c>
       <c r="B132" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -3525,7 +3792,7 @@
         <v>135</v>
       </c>
       <c r="B133" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -3533,7 +3800,7 @@
         <v>136</v>
       </c>
       <c r="B134" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -3541,7 +3808,7 @@
         <v>137</v>
       </c>
       <c r="B135" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -3549,7 +3816,7 @@
         <v>138</v>
       </c>
       <c r="B136" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -3557,7 +3824,7 @@
         <v>139</v>
       </c>
       <c r="B137" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -3565,7 +3832,7 @@
         <v>140</v>
       </c>
       <c r="B138" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -3573,7 +3840,7 @@
         <v>141</v>
       </c>
       <c r="B139" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -3581,7 +3848,7 @@
         <v>142</v>
       </c>
       <c r="B140" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -3589,7 +3856,7 @@
         <v>143</v>
       </c>
       <c r="B141" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -3597,7 +3864,7 @@
         <v>144</v>
       </c>
       <c r="B142" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -3605,7 +3872,7 @@
         <v>145</v>
       </c>
       <c r="B143" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -3613,7 +3880,7 @@
         <v>146</v>
       </c>
       <c r="B144" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -3621,7 +3888,7 @@
         <v>147</v>
       </c>
       <c r="B145" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -3629,7 +3896,7 @@
         <v>148</v>
       </c>
       <c r="B146" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -3637,7 +3904,7 @@
         <v>149</v>
       </c>
       <c r="B147" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -3645,7 +3912,7 @@
         <v>150</v>
       </c>
       <c r="B148" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -3653,7 +3920,7 @@
         <v>151</v>
       </c>
       <c r="B149" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -3661,7 +3928,7 @@
         <v>152</v>
       </c>
       <c r="B150" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -3669,7 +3936,7 @@
         <v>153</v>
       </c>
       <c r="B151" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -3677,7 +3944,7 @@
         <v>154</v>
       </c>
       <c r="B152" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -3685,7 +3952,7 @@
         <v>155</v>
       </c>
       <c r="B153" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -3693,7 +3960,7 @@
         <v>156</v>
       </c>
       <c r="B154" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -3701,7 +3968,7 @@
         <v>157</v>
       </c>
       <c r="B155" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -3709,7 +3976,7 @@
         <v>158</v>
       </c>
       <c r="B156" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -3717,7 +3984,7 @@
         <v>159</v>
       </c>
       <c r="B157" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -3725,7 +3992,7 @@
         <v>160</v>
       </c>
       <c r="B158" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -3733,7 +4000,7 @@
         <v>161</v>
       </c>
       <c r="B159" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -3741,7 +4008,7 @@
         <v>162</v>
       </c>
       <c r="B160" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -3749,7 +4016,7 @@
         <v>163</v>
       </c>
       <c r="B161" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -3757,7 +4024,7 @@
         <v>164</v>
       </c>
       <c r="B162" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -3765,7 +4032,7 @@
         <v>165</v>
       </c>
       <c r="B163" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -3773,7 +4040,7 @@
         <v>166</v>
       </c>
       <c r="B164" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -3781,7 +4048,7 @@
         <v>167</v>
       </c>
       <c r="B165" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -3789,7 +4056,7 @@
         <v>168</v>
       </c>
       <c r="B166" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -3797,7 +4064,7 @@
         <v>169</v>
       </c>
       <c r="B167" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -3805,7 +4072,7 @@
         <v>170</v>
       </c>
       <c r="B168" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -3813,7 +4080,7 @@
         <v>171</v>
       </c>
       <c r="B169" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -3821,7 +4088,7 @@
         <v>172</v>
       </c>
       <c r="B170" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -3829,7 +4096,7 @@
         <v>173</v>
       </c>
       <c r="B171" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -3837,7 +4104,7 @@
         <v>174</v>
       </c>
       <c r="B172" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -3845,7 +4112,7 @@
         <v>175</v>
       </c>
       <c r="B173" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -3853,7 +4120,7 @@
         <v>176</v>
       </c>
       <c r="B174" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -3861,7 +4128,7 @@
         <v>177</v>
       </c>
       <c r="B175" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
@@ -3869,7 +4136,7 @@
         <v>178</v>
       </c>
       <c r="B176" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -3877,7 +4144,7 @@
         <v>179</v>
       </c>
       <c r="B177" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
@@ -3885,7 +4152,7 @@
         <v>180</v>
       </c>
       <c r="B178" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -3893,7 +4160,7 @@
         <v>181</v>
       </c>
       <c r="B179" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -3901,7 +4168,7 @@
         <v>182</v>
       </c>
       <c r="B180" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -3909,7 +4176,7 @@
         <v>183</v>
       </c>
       <c r="B181" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
@@ -3941,7 +4208,7 @@
         <v>187</v>
       </c>
       <c r="B185" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -3949,7 +4216,7 @@
         <v>188</v>
       </c>
       <c r="B186" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -3957,7 +4224,7 @@
         <v>189</v>
       </c>
       <c r="B187" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -3965,7 +4232,7 @@
         <v>190</v>
       </c>
       <c r="B188" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -3973,7 +4240,7 @@
         <v>191</v>
       </c>
       <c r="B189" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -3981,7 +4248,7 @@
         <v>192</v>
       </c>
       <c r="B190" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -3989,7 +4256,7 @@
         <v>193</v>
       </c>
       <c r="B191" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -3997,7 +4264,7 @@
         <v>194</v>
       </c>
       <c r="B192" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -4005,7 +4272,7 @@
         <v>195</v>
       </c>
       <c r="B193" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -4013,7 +4280,7 @@
         <v>196</v>
       </c>
       <c r="B194" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -4021,7 +4288,7 @@
         <v>197</v>
       </c>
       <c r="B195" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -4029,7 +4296,7 @@
         <v>198</v>
       </c>
       <c r="B196" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -4037,7 +4304,7 @@
         <v>199</v>
       </c>
       <c r="B197" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -4045,7 +4312,7 @@
         <v>200</v>
       </c>
       <c r="B198" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -4053,7 +4320,7 @@
         <v>201</v>
       </c>
       <c r="B199" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -4061,7 +4328,7 @@
         <v>202</v>
       </c>
       <c r="B200" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -4069,7 +4336,7 @@
         <v>203</v>
       </c>
       <c r="B201" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -4077,7 +4344,7 @@
         <v>204</v>
       </c>
       <c r="B202" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -4085,7 +4352,7 @@
         <v>205</v>
       </c>
       <c r="B203" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -4109,7 +4376,7 @@
         <v>208</v>
       </c>
       <c r="B206" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
@@ -4117,7 +4384,7 @@
         <v>209</v>
       </c>
       <c r="B207" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -4125,7 +4392,7 @@
         <v>210</v>
       </c>
       <c r="B208" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
@@ -4133,7 +4400,7 @@
         <v>211</v>
       </c>
       <c r="B209" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
@@ -4141,7 +4408,7 @@
         <v>212</v>
       </c>
       <c r="B210" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
@@ -4149,7 +4416,7 @@
         <v>213</v>
       </c>
       <c r="B211" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -4157,7 +4424,7 @@
         <v>214</v>
       </c>
       <c r="B212" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -4165,7 +4432,7 @@
         <v>215</v>
       </c>
       <c r="B213" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
@@ -4173,7 +4440,7 @@
         <v>216</v>
       </c>
       <c r="B214" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
@@ -4181,7 +4448,7 @@
         <v>217</v>
       </c>
       <c r="B215" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
@@ -4189,7 +4456,7 @@
         <v>218</v>
       </c>
       <c r="B216" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
@@ -4197,7 +4464,7 @@
         <v>219</v>
       </c>
       <c r="B217" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
@@ -4205,7 +4472,7 @@
         <v>220</v>
       </c>
       <c r="B218" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
@@ -4213,7 +4480,7 @@
         <v>221</v>
       </c>
       <c r="B219" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
@@ -4221,7 +4488,7 @@
         <v>222</v>
       </c>
       <c r="B220" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
@@ -4229,7 +4496,7 @@
         <v>223</v>
       </c>
       <c r="B221" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
@@ -4237,7 +4504,7 @@
         <v>224</v>
       </c>
       <c r="B222" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
@@ -4245,7 +4512,7 @@
         <v>225</v>
       </c>
       <c r="B223" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
@@ -4253,7 +4520,7 @@
         <v>226</v>
       </c>
       <c r="B224" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
@@ -4261,7 +4528,7 @@
         <v>227</v>
       </c>
       <c r="B225" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
@@ -4269,7 +4536,7 @@
         <v>228</v>
       </c>
       <c r="B226" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
@@ -4277,7 +4544,7 @@
         <v>229</v>
       </c>
       <c r="B227" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
@@ -4285,7 +4552,7 @@
         <v>230</v>
       </c>
       <c r="B228" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
@@ -4293,7 +4560,7 @@
         <v>231</v>
       </c>
       <c r="B229" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
@@ -4301,7 +4568,7 @@
         <v>232</v>
       </c>
       <c r="B230" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
@@ -4309,7 +4576,7 @@
         <v>233</v>
       </c>
       <c r="B231" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
@@ -4317,7 +4584,7 @@
         <v>234</v>
       </c>
       <c r="B232" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
@@ -4325,7 +4592,7 @@
         <v>235</v>
       </c>
       <c r="B233" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
@@ -4333,7 +4600,7 @@
         <v>236</v>
       </c>
       <c r="B234" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
@@ -4341,7 +4608,7 @@
         <v>237</v>
       </c>
       <c r="B235" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
@@ -4349,7 +4616,7 @@
         <v>238</v>
       </c>
       <c r="B236" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
@@ -4357,7 +4624,7 @@
         <v>239</v>
       </c>
       <c r="B237" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
@@ -4365,7 +4632,7 @@
         <v>240</v>
       </c>
       <c r="B238" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
@@ -4373,7 +4640,7 @@
         <v>241</v>
       </c>
       <c r="B239" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
@@ -4381,7 +4648,7 @@
         <v>242</v>
       </c>
       <c r="B240" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
@@ -4389,7 +4656,7 @@
         <v>243</v>
       </c>
       <c r="B241" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
@@ -4397,7 +4664,7 @@
         <v>244</v>
       </c>
       <c r="B242" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
@@ -4405,7 +4672,7 @@
         <v>245</v>
       </c>
       <c r="B243" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
@@ -4413,7 +4680,7 @@
         <v>246</v>
       </c>
       <c r="B244" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
@@ -4421,7 +4688,7 @@
         <v>247</v>
       </c>
       <c r="B245" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
@@ -4429,7 +4696,7 @@
         <v>248</v>
       </c>
       <c r="B246" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
@@ -4437,7 +4704,7 @@
         <v>249</v>
       </c>
       <c r="B247" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
@@ -4445,7 +4712,7 @@
         <v>250</v>
       </c>
       <c r="B248" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
@@ -4453,7 +4720,7 @@
         <v>251</v>
       </c>
       <c r="B249" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
@@ -4461,7 +4728,7 @@
         <v>252</v>
       </c>
       <c r="B250" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
@@ -4469,7 +4736,7 @@
         <v>253</v>
       </c>
       <c r="B251" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
@@ -4477,7 +4744,7 @@
         <v>254</v>
       </c>
       <c r="B252" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
@@ -4485,7 +4752,7 @@
         <v>255</v>
       </c>
       <c r="B253" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
@@ -4493,7 +4760,7 @@
         <v>256</v>
       </c>
       <c r="B254" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
@@ -4501,7 +4768,7 @@
         <v>257</v>
       </c>
       <c r="B255" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
@@ -4509,7 +4776,7 @@
         <v>258</v>
       </c>
       <c r="B256" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
@@ -4517,7 +4784,7 @@
         <v>259</v>
       </c>
       <c r="B257" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
@@ -4525,7 +4792,7 @@
         <v>260</v>
       </c>
       <c r="B258" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
@@ -4533,7 +4800,7 @@
         <v>261</v>
       </c>
       <c r="B259" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
@@ -4541,7 +4808,7 @@
         <v>262</v>
       </c>
       <c r="B260" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
@@ -4549,7 +4816,7 @@
         <v>263</v>
       </c>
       <c r="B261" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
@@ -4557,7 +4824,7 @@
         <v>264</v>
       </c>
       <c r="B262" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
@@ -4565,7 +4832,7 @@
         <v>265</v>
       </c>
       <c r="B263" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
@@ -4573,7 +4840,7 @@
         <v>266</v>
       </c>
       <c r="B264" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
@@ -4581,7 +4848,7 @@
         <v>267</v>
       </c>
       <c r="B265" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
@@ -4589,7 +4856,7 @@
         <v>268</v>
       </c>
       <c r="B266" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
@@ -4597,7 +4864,7 @@
         <v>269</v>
       </c>
       <c r="B267" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
@@ -4605,7 +4872,7 @@
         <v>270</v>
       </c>
       <c r="B268" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
@@ -4613,7 +4880,7 @@
         <v>271</v>
       </c>
       <c r="B269" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
@@ -4621,7 +4888,7 @@
         <v>272</v>
       </c>
       <c r="B270" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
@@ -4629,7 +4896,7 @@
         <v>273</v>
       </c>
       <c r="B271" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
@@ -4637,7 +4904,7 @@
         <v>274</v>
       </c>
       <c r="B272" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
@@ -4645,7 +4912,7 @@
         <v>275</v>
       </c>
       <c r="B273" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
@@ -4653,7 +4920,7 @@
         <v>276</v>
       </c>
       <c r="B274" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
@@ -4661,7 +4928,7 @@
         <v>277</v>
       </c>
       <c r="B275" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
@@ -4669,7 +4936,7 @@
         <v>278</v>
       </c>
       <c r="B276" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
@@ -4677,7 +4944,7 @@
         <v>279</v>
       </c>
       <c r="B277" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
@@ -4685,7 +4952,7 @@
         <v>280</v>
       </c>
       <c r="B278" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
@@ -4693,7 +4960,7 @@
         <v>281</v>
       </c>
       <c r="B279" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
@@ -4701,7 +4968,7 @@
         <v>282</v>
       </c>
       <c r="B280" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
@@ -4709,7 +4976,7 @@
         <v>283</v>
       </c>
       <c r="B281" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
@@ -4717,7 +4984,7 @@
         <v>284</v>
       </c>
       <c r="B282" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
@@ -4725,7 +4992,7 @@
         <v>285</v>
       </c>
       <c r="B283" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
@@ -4733,7 +5000,7 @@
         <v>286</v>
       </c>
       <c r="B284" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
@@ -4741,7 +5008,7 @@
         <v>287</v>
       </c>
       <c r="B285" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
@@ -4749,7 +5016,7 @@
         <v>288</v>
       </c>
       <c r="B286" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
@@ -4757,7 +5024,7 @@
         <v>289</v>
       </c>
       <c r="B287" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
@@ -4765,7 +5032,7 @@
         <v>290</v>
       </c>
       <c r="B288" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
@@ -4773,7 +5040,7 @@
         <v>291</v>
       </c>
       <c r="B289" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
@@ -4781,7 +5048,7 @@
         <v>292</v>
       </c>
       <c r="B290" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
@@ -4789,7 +5056,7 @@
         <v>293</v>
       </c>
       <c r="B291" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
@@ -4797,7 +5064,7 @@
         <v>294</v>
       </c>
       <c r="B292" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
@@ -4805,7 +5072,7 @@
         <v>295</v>
       </c>
       <c r="B293" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
@@ -4813,7 +5080,7 @@
         <v>296</v>
       </c>
       <c r="B294" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
@@ -4821,7 +5088,7 @@
         <v>297</v>
       </c>
       <c r="B295" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
@@ -4829,7 +5096,7 @@
         <v>298</v>
       </c>
       <c r="B296" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
@@ -4837,7 +5104,7 @@
         <v>299</v>
       </c>
       <c r="B297" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
@@ -4845,7 +5112,7 @@
         <v>300</v>
       </c>
       <c r="B298" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
@@ -4853,7 +5120,7 @@
         <v>301</v>
       </c>
       <c r="B299" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
@@ -4861,7 +5128,7 @@
         <v>302</v>
       </c>
       <c r="B300" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
@@ -4869,7 +5136,7 @@
         <v>303</v>
       </c>
       <c r="B301" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
@@ -4877,7 +5144,7 @@
         <v>304</v>
       </c>
       <c r="B302" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
@@ -4885,7 +5152,7 @@
         <v>305</v>
       </c>
       <c r="B303" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
@@ -4893,7 +5160,7 @@
         <v>306</v>
       </c>
       <c r="B304" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
@@ -4901,7 +5168,7 @@
         <v>307</v>
       </c>
       <c r="B305" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
@@ -4909,7 +5176,7 @@
         <v>308</v>
       </c>
       <c r="B306" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
@@ -4917,7 +5184,7 @@
         <v>309</v>
       </c>
       <c r="B307" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
@@ -4925,7 +5192,7 @@
         <v>310</v>
       </c>
       <c r="B308" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
@@ -4933,7 +5200,7 @@
         <v>311</v>
       </c>
       <c r="B309" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
@@ -4941,7 +5208,7 @@
         <v>312</v>
       </c>
       <c r="B310" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
@@ -4949,7 +5216,7 @@
         <v>313</v>
       </c>
       <c r="B311" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
@@ -4957,7 +5224,7 @@
         <v>314</v>
       </c>
       <c r="B312" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
@@ -4965,7 +5232,7 @@
         <v>315</v>
       </c>
       <c r="B313" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
@@ -4973,7 +5240,7 @@
         <v>316</v>
       </c>
       <c r="B314" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
@@ -4981,7 +5248,7 @@
         <v>317</v>
       </c>
       <c r="B315" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
@@ -4989,7 +5256,7 @@
         <v>318</v>
       </c>
       <c r="B316" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
@@ -4997,7 +5264,7 @@
         <v>319</v>
       </c>
       <c r="B317" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
@@ -5005,7 +5272,7 @@
         <v>320</v>
       </c>
       <c r="B318" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
@@ -5013,7 +5280,7 @@
         <v>321</v>
       </c>
       <c r="B319" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
@@ -5021,7 +5288,7 @@
         <v>322</v>
       </c>
       <c r="B320" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
@@ -5029,7 +5296,7 @@
         <v>323</v>
       </c>
       <c r="B321" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
@@ -5037,7 +5304,7 @@
         <v>324</v>
       </c>
       <c r="B322" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
@@ -5045,7 +5312,7 @@
         <v>325</v>
       </c>
       <c r="B323" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
@@ -5053,7 +5320,7 @@
         <v>326</v>
       </c>
       <c r="B324" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
@@ -5061,7 +5328,7 @@
         <v>327</v>
       </c>
       <c r="B325" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
@@ -5069,7 +5336,7 @@
         <v>328</v>
       </c>
       <c r="B326" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
@@ -5077,7 +5344,7 @@
         <v>329</v>
       </c>
       <c r="B327" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
@@ -5085,7 +5352,7 @@
         <v>330</v>
       </c>
       <c r="B328" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
@@ -5093,7 +5360,7 @@
         <v>331</v>
       </c>
       <c r="B329" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
@@ -5101,7 +5368,7 @@
         <v>332</v>
       </c>
       <c r="B330" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
@@ -5109,7 +5376,7 @@
         <v>333</v>
       </c>
       <c r="B331" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
@@ -5117,7 +5384,7 @@
         <v>334</v>
       </c>
       <c r="B332" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
@@ -5125,7 +5392,7 @@
         <v>335</v>
       </c>
       <c r="B333" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
@@ -5133,7 +5400,7 @@
         <v>336</v>
       </c>
       <c r="B334" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
@@ -5141,7 +5408,7 @@
         <v>337</v>
       </c>
       <c r="B335" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
@@ -5149,7 +5416,7 @@
         <v>338</v>
       </c>
       <c r="B336" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
@@ -5157,7 +5424,7 @@
         <v>339</v>
       </c>
       <c r="B337" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
@@ -5165,7 +5432,7 @@
         <v>340</v>
       </c>
       <c r="B338" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
@@ -5173,7 +5440,7 @@
         <v>341</v>
       </c>
       <c r="B339" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
@@ -5181,7 +5448,7 @@
         <v>342</v>
       </c>
       <c r="B340" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
@@ -5189,7 +5456,7 @@
         <v>343</v>
       </c>
       <c r="B341" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
@@ -5197,7 +5464,7 @@
         <v>344</v>
       </c>
       <c r="B342" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
@@ -5205,7 +5472,7 @@
         <v>345</v>
       </c>
       <c r="B343" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
@@ -5213,7 +5480,7 @@
         <v>346</v>
       </c>
       <c r="B344" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
@@ -5221,7 +5488,7 @@
         <v>347</v>
       </c>
       <c r="B345" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
@@ -5229,7 +5496,7 @@
         <v>348</v>
       </c>
       <c r="B346" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
@@ -5237,7 +5504,7 @@
         <v>349</v>
       </c>
       <c r="B347" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
@@ -5245,7 +5512,7 @@
         <v>350</v>
       </c>
       <c r="B348" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
@@ -5253,7 +5520,7 @@
         <v>351</v>
       </c>
       <c r="B349" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
@@ -5261,7 +5528,7 @@
         <v>352</v>
       </c>
       <c r="B350" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
@@ -5269,7 +5536,7 @@
         <v>353</v>
       </c>
       <c r="B351" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
@@ -5277,7 +5544,7 @@
         <v>354</v>
       </c>
       <c r="B352" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
@@ -5285,7 +5552,7 @@
         <v>355</v>
       </c>
       <c r="B353" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
@@ -5293,7 +5560,7 @@
         <v>356</v>
       </c>
       <c r="B354" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
@@ -5301,7 +5568,7 @@
         <v>357</v>
       </c>
       <c r="B355" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
@@ -5309,7 +5576,7 @@
         <v>358</v>
       </c>
       <c r="B356" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
@@ -5317,7 +5584,7 @@
         <v>359</v>
       </c>
       <c r="B357" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
@@ -5325,7 +5592,7 @@
         <v>360</v>
       </c>
       <c r="B358" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
@@ -5333,7 +5600,7 @@
         <v>361</v>
       </c>
       <c r="B359" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
@@ -5341,7 +5608,7 @@
         <v>362</v>
       </c>
       <c r="B360" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
@@ -5349,7 +5616,7 @@
         <v>363</v>
       </c>
       <c r="B361" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
@@ -5357,7 +5624,7 @@
         <v>364</v>
       </c>
       <c r="B362" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
@@ -5365,7 +5632,7 @@
         <v>365</v>
       </c>
       <c r="B363" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
@@ -5373,7 +5640,7 @@
         <v>366</v>
       </c>
       <c r="B364" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
@@ -5381,7 +5648,7 @@
         <v>367</v>
       </c>
       <c r="B365" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
@@ -5389,7 +5656,7 @@
         <v>368</v>
       </c>
       <c r="B366" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
@@ -5397,7 +5664,7 @@
         <v>369</v>
       </c>
       <c r="B367" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
@@ -5405,7 +5672,7 @@
         <v>370</v>
       </c>
       <c r="B368" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
@@ -5413,7 +5680,7 @@
         <v>371</v>
       </c>
       <c r="B369" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
@@ -5421,7 +5688,7 @@
         <v>372</v>
       </c>
       <c r="B370" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
@@ -5429,7 +5696,7 @@
         <v>373</v>
       </c>
       <c r="B371" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
@@ -5437,7 +5704,7 @@
         <v>374</v>
       </c>
       <c r="B372" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
@@ -5445,7 +5712,7 @@
         <v>375</v>
       </c>
       <c r="B373" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
@@ -5453,7 +5720,7 @@
         <v>376</v>
       </c>
       <c r="B374" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
@@ -5461,7 +5728,7 @@
         <v>377</v>
       </c>
       <c r="B375" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
@@ -5469,7 +5736,7 @@
         <v>378</v>
       </c>
       <c r="B376" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
@@ -5477,7 +5744,7 @@
         <v>379</v>
       </c>
       <c r="B377" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
@@ -5485,7 +5752,7 @@
         <v>380</v>
       </c>
       <c r="B378" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
@@ -5493,7 +5760,7 @@
         <v>381</v>
       </c>
       <c r="B379" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
@@ -5501,7 +5768,7 @@
         <v>382</v>
       </c>
       <c r="B380" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
@@ -5509,7 +5776,7 @@
         <v>383</v>
       </c>
       <c r="B381" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
@@ -5517,7 +5784,7 @@
         <v>384</v>
       </c>
       <c r="B382" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
@@ -5525,7 +5792,7 @@
         <v>385</v>
       </c>
       <c r="B383" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
@@ -5533,7 +5800,7 @@
         <v>386</v>
       </c>
       <c r="B384" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
@@ -5541,7 +5808,7 @@
         <v>387</v>
       </c>
       <c r="B385" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
@@ -5549,7 +5816,7 @@
         <v>388</v>
       </c>
       <c r="B386" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
@@ -5557,7 +5824,7 @@
         <v>389</v>
       </c>
       <c r="B387" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
@@ -5565,7 +5832,7 @@
         <v>390</v>
       </c>
       <c r="B388" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
@@ -5573,7 +5840,7 @@
         <v>391</v>
       </c>
       <c r="B389" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
@@ -5581,7 +5848,7 @@
         <v>392</v>
       </c>
       <c r="B390" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
@@ -5589,7 +5856,7 @@
         <v>393</v>
       </c>
       <c r="B391" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
@@ -5597,7 +5864,7 @@
         <v>394</v>
       </c>
       <c r="B392" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
@@ -5605,7 +5872,7 @@
         <v>395</v>
       </c>
       <c r="B393" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
@@ -5613,7 +5880,7 @@
         <v>396</v>
       </c>
       <c r="B394" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
@@ -5621,7 +5888,7 @@
         <v>397</v>
       </c>
       <c r="B395" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
@@ -5629,7 +5896,7 @@
         <v>398</v>
       </c>
       <c r="B396" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
@@ -5637,7 +5904,7 @@
         <v>399</v>
       </c>
       <c r="B397" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
@@ -5645,7 +5912,7 @@
         <v>400</v>
       </c>
       <c r="B398" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
@@ -5653,7 +5920,7 @@
         <v>401</v>
       </c>
       <c r="B399" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
@@ -5661,7 +5928,7 @@
         <v>402</v>
       </c>
       <c r="B400" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
@@ -5669,7 +5936,7 @@
         <v>403</v>
       </c>
       <c r="B401" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
@@ -5677,7 +5944,7 @@
         <v>404</v>
       </c>
       <c r="B402" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
@@ -5685,7 +5952,7 @@
         <v>405</v>
       </c>
       <c r="B403" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
@@ -5693,7 +5960,7 @@
         <v>406</v>
       </c>
       <c r="B404" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
@@ -5701,7 +5968,7 @@
         <v>407</v>
       </c>
       <c r="B405" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
@@ -5709,7 +5976,7 @@
         <v>408</v>
       </c>
       <c r="B406" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
@@ -5717,7 +5984,7 @@
         <v>409</v>
       </c>
       <c r="B407" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
@@ -5725,7 +5992,7 @@
         <v>410</v>
       </c>
       <c r="B408" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
@@ -5733,7 +6000,7 @@
         <v>411</v>
       </c>
       <c r="B409" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
@@ -5741,7 +6008,7 @@
         <v>412</v>
       </c>
       <c r="B410" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
@@ -5749,7 +6016,7 @@
         <v>413</v>
       </c>
       <c r="B411" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
@@ -5757,7 +6024,7 @@
         <v>414</v>
       </c>
       <c r="B412" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
@@ -5765,7 +6032,7 @@
         <v>415</v>
       </c>
       <c r="B413" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
@@ -5773,7 +6040,7 @@
         <v>416</v>
       </c>
       <c r="B414" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
@@ -5781,7 +6048,7 @@
         <v>417</v>
       </c>
       <c r="B415" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
@@ -5789,7 +6056,7 @@
         <v>418</v>
       </c>
       <c r="B416" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
@@ -5797,599 +6064,599 @@
         <v>419</v>
       </c>
       <c r="B417" t="s">
-        <v>420</v>
+        <v>3</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B418" t="s">
-        <v>420</v>
+        <v>3</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B419" t="s">
-        <v>420</v>
+        <v>3</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B420" t="s">
-        <v>420</v>
+        <v>3</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B421" t="s">
-        <v>420</v>
+        <v>3</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B422" t="s">
-        <v>420</v>
+        <v>7</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B423" t="s">
-        <v>420</v>
+        <v>3</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B424" t="s">
-        <v>420</v>
+        <v>3</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B425" t="s">
-        <v>420</v>
+        <v>3</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B426" t="s">
-        <v>420</v>
+        <v>3</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B427" t="s">
-        <v>420</v>
+        <v>3</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B428" t="s">
-        <v>420</v>
+        <v>3</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B429" t="s">
-        <v>420</v>
+        <v>3</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B430" t="s">
-        <v>420</v>
+        <v>3</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B431" t="s">
-        <v>420</v>
+        <v>3</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B432" t="s">
-        <v>420</v>
+        <v>7</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B433" t="s">
-        <v>420</v>
+        <v>3</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B434" t="s">
-        <v>420</v>
+        <v>3</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B435" t="s">
-        <v>420</v>
+        <v>3</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B436" t="s">
-        <v>420</v>
+        <v>3</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B437" t="s">
-        <v>420</v>
+        <v>3</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B438" t="s">
-        <v>420</v>
+        <v>7</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B439" t="s">
-        <v>420</v>
+        <v>7</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B440" t="s">
-        <v>420</v>
+        <v>3</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B441" t="s">
-        <v>420</v>
+        <v>3</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B442" t="s">
-        <v>420</v>
+        <v>3</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B443" t="s">
-        <v>420</v>
+        <v>3</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B444" t="s">
-        <v>420</v>
+        <v>3</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B445" t="s">
-        <v>420</v>
+        <v>3</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B446" t="s">
-        <v>420</v>
+        <v>3</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B447" t="s">
-        <v>420</v>
+        <v>3</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B448" t="s">
-        <v>420</v>
+        <v>3</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B449" t="s">
-        <v>420</v>
+        <v>3</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B450" t="s">
-        <v>420</v>
+        <v>3</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B451" t="s">
-        <v>420</v>
+        <v>3</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B452" t="s">
-        <v>420</v>
+        <v>3</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B453" t="s">
-        <v>420</v>
+        <v>3</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B454" t="s">
-        <v>420</v>
+        <v>3</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B455" t="s">
-        <v>420</v>
+        <v>3</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B456" t="s">
-        <v>420</v>
+        <v>3</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B457" t="s">
-        <v>420</v>
+        <v>3</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B458" t="s">
-        <v>420</v>
+        <v>3</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B459" t="s">
-        <v>420</v>
+        <v>7</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B460" t="s">
-        <v>420</v>
+        <v>3</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B461" t="s">
-        <v>420</v>
+        <v>3</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B462" t="s">
-        <v>420</v>
+        <v>7</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B463" t="s">
-        <v>420</v>
+        <v>3</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B464" t="s">
-        <v>420</v>
+        <v>3</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B465" t="s">
-        <v>420</v>
+        <v>3</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B466" t="s">
-        <v>420</v>
+        <v>3</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B467" t="s">
-        <v>420</v>
+        <v>3</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B468" t="s">
-        <v>420</v>
+        <v>3</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B469" t="s">
-        <v>420</v>
+        <v>3</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B470" t="s">
-        <v>420</v>
+        <v>3</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B471" t="s">
-        <v>420</v>
+        <v>3</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B472" t="s">
-        <v>420</v>
+        <v>3</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B473" t="s">
-        <v>420</v>
+        <v>3</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B474" t="s">
-        <v>420</v>
+        <v>3</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B475" t="s">
-        <v>420</v>
+        <v>3</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B476" t="s">
-        <v>420</v>
+        <v>3</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B477" t="s">
-        <v>420</v>
+        <v>7</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B478" t="s">
-        <v>420</v>
+        <v>3</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B479" t="s">
-        <v>420</v>
+        <v>3</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B480" t="s">
-        <v>420</v>
+        <v>3</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B481" t="s">
-        <v>420</v>
+        <v>3</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B482" t="s">
-        <v>420</v>
+        <v>3</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B483" t="s">
-        <v>420</v>
+        <v>3</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B484" t="s">
-        <v>420</v>
+        <v>7</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B485" t="s">
-        <v>420</v>
+        <v>3</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B486" t="s">
-        <v>420</v>
+        <v>3</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B487" t="s">
-        <v>420</v>
+        <v>3</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B488" t="s">
-        <v>420</v>
+        <v>3</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B489" t="s">
-        <v>420</v>
+        <v>3</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B490" t="s">
-        <v>420</v>
+        <v>7</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
+        <v>493</v>
+      </c>
+      <c r="B491" t="s">
         <v>494</v>
-      </c>
-      <c r="B491" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
@@ -6397,7 +6664,7 @@
         <v>495</v>
       </c>
       <c r="B492" t="s">
-        <v>420</v>
+        <v>494</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
@@ -6405,7 +6672,7 @@
         <v>496</v>
       </c>
       <c r="B493" t="s">
-        <v>420</v>
+        <v>494</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
@@ -6413,7 +6680,7 @@
         <v>497</v>
       </c>
       <c r="B494" t="s">
-        <v>420</v>
+        <v>494</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
@@ -6421,7 +6688,7 @@
         <v>498</v>
       </c>
       <c r="B495" t="s">
-        <v>420</v>
+        <v>494</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
@@ -6429,7 +6696,7 @@
         <v>499</v>
       </c>
       <c r="B496" t="s">
-        <v>420</v>
+        <v>494</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
@@ -6437,7 +6704,7 @@
         <v>500</v>
       </c>
       <c r="B497" t="s">
-        <v>420</v>
+        <v>494</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
@@ -6445,7 +6712,7 @@
         <v>501</v>
       </c>
       <c r="B498" t="s">
-        <v>3</v>
+        <v>494</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
@@ -6453,7 +6720,7 @@
         <v>502</v>
       </c>
       <c r="B499" t="s">
-        <v>3</v>
+        <v>494</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
@@ -6461,7 +6728,7 @@
         <v>503</v>
       </c>
       <c r="B500" t="s">
-        <v>3</v>
+        <v>494</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
@@ -6469,7 +6736,7 @@
         <v>504</v>
       </c>
       <c r="B501" t="s">
-        <v>3</v>
+        <v>494</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
@@ -6477,7 +6744,7 @@
         <v>505</v>
       </c>
       <c r="B502" t="s">
-        <v>3</v>
+        <v>494</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.25">
@@ -6485,7 +6752,7 @@
         <v>506</v>
       </c>
       <c r="B503" t="s">
-        <v>3</v>
+        <v>494</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
@@ -6493,7 +6760,7 @@
         <v>507</v>
       </c>
       <c r="B504" t="s">
-        <v>3</v>
+        <v>494</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
@@ -6501,7 +6768,7 @@
         <v>508</v>
       </c>
       <c r="B505" t="s">
-        <v>3</v>
+        <v>494</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
@@ -6509,7 +6776,7 @@
         <v>509</v>
       </c>
       <c r="B506" t="s">
-        <v>3</v>
+        <v>494</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
@@ -6517,7 +6784,7 @@
         <v>510</v>
       </c>
       <c r="B507" t="s">
-        <v>3</v>
+        <v>494</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.25">
@@ -6525,7 +6792,7 @@
         <v>511</v>
       </c>
       <c r="B508" t="s">
-        <v>3</v>
+        <v>494</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
@@ -6533,7 +6800,7 @@
         <v>512</v>
       </c>
       <c r="B509" t="s">
-        <v>3</v>
+        <v>494</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.25">
@@ -6541,7 +6808,7 @@
         <v>513</v>
       </c>
       <c r="B510" t="s">
-        <v>9</v>
+        <v>494</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.25">
@@ -6549,7 +6816,7 @@
         <v>514</v>
       </c>
       <c r="B511" t="s">
-        <v>3</v>
+        <v>494</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
@@ -6557,7 +6824,7 @@
         <v>515</v>
       </c>
       <c r="B512" t="s">
-        <v>3</v>
+        <v>494</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.25">
@@ -6565,7 +6832,7 @@
         <v>516</v>
       </c>
       <c r="B513" t="s">
-        <v>3</v>
+        <v>494</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
@@ -6573,7 +6840,7 @@
         <v>517</v>
       </c>
       <c r="B514" t="s">
-        <v>3</v>
+        <v>494</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
@@ -6581,7 +6848,7 @@
         <v>518</v>
       </c>
       <c r="B515" t="s">
-        <v>3</v>
+        <v>494</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
@@ -6589,7 +6856,7 @@
         <v>519</v>
       </c>
       <c r="B516" t="s">
-        <v>3</v>
+        <v>494</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
@@ -6597,7 +6864,7 @@
         <v>520</v>
       </c>
       <c r="B517" t="s">
-        <v>3</v>
+        <v>494</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
@@ -6605,7 +6872,7 @@
         <v>521</v>
       </c>
       <c r="B518" t="s">
-        <v>3</v>
+        <v>494</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.25">
@@ -6613,7 +6880,7 @@
         <v>522</v>
       </c>
       <c r="B519" t="s">
-        <v>3</v>
+        <v>494</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.25">
@@ -6621,7 +6888,7 @@
         <v>523</v>
       </c>
       <c r="B520" t="s">
-        <v>3</v>
+        <v>494</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.25">
@@ -6629,7 +6896,7 @@
         <v>524</v>
       </c>
       <c r="B521" t="s">
-        <v>9</v>
+        <v>494</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.25">
@@ -6637,7 +6904,7 @@
         <v>525</v>
       </c>
       <c r="B522" t="s">
-        <v>3</v>
+        <v>494</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.25">
@@ -6645,7 +6912,7 @@
         <v>526</v>
       </c>
       <c r="B523" t="s">
-        <v>3</v>
+        <v>494</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.25">
@@ -6653,7 +6920,7 @@
         <v>527</v>
       </c>
       <c r="B524" t="s">
-        <v>3</v>
+        <v>494</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.25">
@@ -6661,7 +6928,7 @@
         <v>528</v>
       </c>
       <c r="B525" t="s">
-        <v>3</v>
+        <v>494</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.25">
@@ -6669,7 +6936,7 @@
         <v>529</v>
       </c>
       <c r="B526" t="s">
-        <v>3</v>
+        <v>494</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.25">
@@ -6677,7 +6944,7 @@
         <v>530</v>
       </c>
       <c r="B527" t="s">
-        <v>3</v>
+        <v>494</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
@@ -6685,7 +6952,7 @@
         <v>531</v>
       </c>
       <c r="B528" t="s">
-        <v>3</v>
+        <v>494</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.25">
@@ -6693,7 +6960,7 @@
         <v>532</v>
       </c>
       <c r="B529" t="s">
-        <v>3</v>
+        <v>494</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.25">
@@ -6701,7 +6968,7 @@
         <v>533</v>
       </c>
       <c r="B530" t="s">
-        <v>3</v>
+        <v>494</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.25">
@@ -6709,7 +6976,7 @@
         <v>534</v>
       </c>
       <c r="B531" t="s">
-        <v>3</v>
+        <v>494</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.25">
@@ -6717,7 +6984,7 @@
         <v>535</v>
       </c>
       <c r="B532" t="s">
-        <v>3</v>
+        <v>494</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.25">
@@ -6725,7 +6992,7 @@
         <v>536</v>
       </c>
       <c r="B533" t="s">
-        <v>3</v>
+        <v>494</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.25">
@@ -6733,7 +7000,7 @@
         <v>537</v>
       </c>
       <c r="B534" t="s">
-        <v>3</v>
+        <v>494</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.25">
@@ -6741,7 +7008,7 @@
         <v>538</v>
       </c>
       <c r="B535" t="s">
-        <v>9</v>
+        <v>494</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.25">
@@ -6749,7 +7016,7 @@
         <v>539</v>
       </c>
       <c r="B536" t="s">
-        <v>3</v>
+        <v>494</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.25">
@@ -6757,7 +7024,7 @@
         <v>540</v>
       </c>
       <c r="B537" t="s">
-        <v>3</v>
+        <v>494</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.25">
@@ -6765,7 +7032,7 @@
         <v>541</v>
       </c>
       <c r="B538" t="s">
-        <v>3</v>
+        <v>494</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.25">
@@ -6773,7 +7040,7 @@
         <v>542</v>
       </c>
       <c r="B539" t="s">
-        <v>3</v>
+        <v>494</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.25">
@@ -6781,7 +7048,7 @@
         <v>543</v>
       </c>
       <c r="B540" t="s">
-        <v>3</v>
+        <v>494</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.25">
@@ -6789,7 +7056,7 @@
         <v>544</v>
       </c>
       <c r="B541" t="s">
-        <v>3</v>
+        <v>494</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.25">
@@ -6797,7 +7064,7 @@
         <v>545</v>
       </c>
       <c r="B542" t="s">
-        <v>3</v>
+        <v>494</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.25">
@@ -6805,7 +7072,7 @@
         <v>546</v>
       </c>
       <c r="B543" t="s">
-        <v>3</v>
+        <v>494</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.25">
@@ -6813,7 +7080,7 @@
         <v>547</v>
       </c>
       <c r="B544" t="s">
-        <v>3</v>
+        <v>494</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.25">
@@ -6821,7 +7088,7 @@
         <v>548</v>
       </c>
       <c r="B545" t="s">
-        <v>3</v>
+        <v>494</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.25">
@@ -6829,7 +7096,7 @@
         <v>549</v>
       </c>
       <c r="B546" t="s">
-        <v>3</v>
+        <v>494</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.25">
@@ -6837,7 +7104,7 @@
         <v>550</v>
       </c>
       <c r="B547" t="s">
-        <v>3</v>
+        <v>494</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.25">
@@ -6845,7 +7112,7 @@
         <v>551</v>
       </c>
       <c r="B548" t="s">
-        <v>3</v>
+        <v>494</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.25">
@@ -6853,7 +7120,7 @@
         <v>552</v>
       </c>
       <c r="B549" t="s">
-        <v>3</v>
+        <v>494</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.25">
@@ -6861,7 +7128,7 @@
         <v>553</v>
       </c>
       <c r="B550" t="s">
-        <v>3</v>
+        <v>494</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.25">
@@ -6869,7 +7136,7 @@
         <v>554</v>
       </c>
       <c r="B551" t="s">
-        <v>3</v>
+        <v>494</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.25">
@@ -6877,7 +7144,7 @@
         <v>555</v>
       </c>
       <c r="B552" t="s">
-        <v>3</v>
+        <v>494</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.25">
@@ -6885,7 +7152,7 @@
         <v>556</v>
       </c>
       <c r="B553" t="s">
-        <v>3</v>
+        <v>494</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.25">
@@ -6893,7 +7160,7 @@
         <v>557</v>
       </c>
       <c r="B554" t="s">
-        <v>3</v>
+        <v>494</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.25">
@@ -6901,7 +7168,7 @@
         <v>558</v>
       </c>
       <c r="B555" t="s">
-        <v>3</v>
+        <v>494</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.25">
@@ -6909,7 +7176,7 @@
         <v>559</v>
       </c>
       <c r="B556" t="s">
-        <v>3</v>
+        <v>494</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.25">
@@ -6917,7 +7184,7 @@
         <v>560</v>
       </c>
       <c r="B557" t="s">
-        <v>3</v>
+        <v>494</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.25">
@@ -6925,7 +7192,7 @@
         <v>561</v>
       </c>
       <c r="B558" t="s">
-        <v>3</v>
+        <v>494</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.25">
@@ -6933,7 +7200,7 @@
         <v>562</v>
       </c>
       <c r="B559" t="s">
-        <v>3</v>
+        <v>494</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.25">
@@ -6941,7 +7208,7 @@
         <v>563</v>
       </c>
       <c r="B560" t="s">
-        <v>3</v>
+        <v>494</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.25">
@@ -6949,7 +7216,7 @@
         <v>564</v>
       </c>
       <c r="B561" t="s">
-        <v>3</v>
+        <v>494</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.25">
@@ -6957,7 +7224,7 @@
         <v>565</v>
       </c>
       <c r="B562" t="s">
-        <v>3</v>
+        <v>494</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.25">
@@ -6965,7 +7232,7 @@
         <v>566</v>
       </c>
       <c r="B563" t="s">
-        <v>3</v>
+        <v>494</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.25">
@@ -6973,7 +7240,7 @@
         <v>567</v>
       </c>
       <c r="B564" t="s">
-        <v>3</v>
+        <v>494</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.25">
@@ -6981,7 +7248,7 @@
         <v>568</v>
       </c>
       <c r="B565" t="s">
-        <v>3</v>
+        <v>494</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.25">
@@ -6989,7 +7256,7 @@
         <v>569</v>
       </c>
       <c r="B566" t="s">
-        <v>3</v>
+        <v>494</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.25">
@@ -6997,7 +7264,7 @@
         <v>570</v>
       </c>
       <c r="B567" t="s">
-        <v>3</v>
+        <v>494</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.25">
@@ -7005,7 +7272,7 @@
         <v>571</v>
       </c>
       <c r="B568" t="s">
-        <v>3</v>
+        <v>494</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.25">
@@ -7013,7 +7280,7 @@
         <v>572</v>
       </c>
       <c r="B569" t="s">
-        <v>3</v>
+        <v>494</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.25">
@@ -7021,7 +7288,7 @@
         <v>573</v>
       </c>
       <c r="B570" t="s">
-        <v>3</v>
+        <v>494</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.25">
@@ -7029,7 +7296,7 @@
         <v>574</v>
       </c>
       <c r="B571" t="s">
-        <v>3</v>
+        <v>494</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.25">
@@ -7037,7 +7304,7 @@
         <v>575</v>
       </c>
       <c r="B572" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.25">
@@ -7045,7 +7312,7 @@
         <v>576</v>
       </c>
       <c r="B573" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.25">
@@ -7053,7 +7320,7 @@
         <v>577</v>
       </c>
       <c r="B574" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.25">
@@ -7061,7 +7328,7 @@
         <v>578</v>
       </c>
       <c r="B575" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.25">
@@ -7069,7 +7336,7 @@
         <v>579</v>
       </c>
       <c r="B576" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.25">
@@ -7077,7 +7344,7 @@
         <v>580</v>
       </c>
       <c r="B577" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.25">
@@ -7085,7 +7352,7 @@
         <v>581</v>
       </c>
       <c r="B578" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.25">
@@ -7093,7 +7360,7 @@
         <v>582</v>
       </c>
       <c r="B579" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.25">
@@ -7101,7 +7368,7 @@
         <v>583</v>
       </c>
       <c r="B580" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.25">
@@ -7109,7 +7376,7 @@
         <v>584</v>
       </c>
       <c r="B581" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.25">
@@ -7117,7 +7384,7 @@
         <v>585</v>
       </c>
       <c r="B582" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.25">
@@ -7125,7 +7392,7 @@
         <v>586</v>
       </c>
       <c r="B583" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.25">
@@ -7141,7 +7408,7 @@
         <v>588</v>
       </c>
       <c r="B585" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.25">
@@ -7149,7 +7416,7 @@
         <v>589</v>
       </c>
       <c r="B586" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.25">
@@ -7157,7 +7424,7 @@
         <v>590</v>
       </c>
       <c r="B587" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.25">
@@ -7165,7 +7432,7 @@
         <v>591</v>
       </c>
       <c r="B588" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.25">
@@ -7173,7 +7440,7 @@
         <v>592</v>
       </c>
       <c r="B589" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.25">
@@ -7181,7 +7448,7 @@
         <v>593</v>
       </c>
       <c r="B590" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.25">
@@ -7189,7 +7456,7 @@
         <v>594</v>
       </c>
       <c r="B591" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.25">
@@ -7197,7 +7464,7 @@
         <v>595</v>
       </c>
       <c r="B592" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.25">
@@ -7205,7 +7472,7 @@
         <v>596</v>
       </c>
       <c r="B593" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.25">
@@ -7213,7 +7480,7 @@
         <v>597</v>
       </c>
       <c r="B594" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.25">
@@ -7229,7 +7496,7 @@
         <v>599</v>
       </c>
       <c r="B596" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.25">
@@ -7237,7 +7504,7 @@
         <v>600</v>
       </c>
       <c r="B597" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.25">
@@ -7245,7 +7512,7 @@
         <v>601</v>
       </c>
       <c r="B598" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.25">
@@ -7253,7 +7520,7 @@
         <v>602</v>
       </c>
       <c r="B599" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.25">
@@ -7261,7 +7528,7 @@
         <v>603</v>
       </c>
       <c r="B600" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.25">
@@ -7269,7 +7536,7 @@
         <v>604</v>
       </c>
       <c r="B601" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.25">
@@ -7277,7 +7544,7 @@
         <v>605</v>
       </c>
       <c r="B602" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.25">
@@ -7285,7 +7552,7 @@
         <v>606</v>
       </c>
       <c r="B603" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.25">
@@ -7293,7 +7560,7 @@
         <v>607</v>
       </c>
       <c r="B604" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.25">
@@ -7301,7 +7568,7 @@
         <v>608</v>
       </c>
       <c r="B605" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.25">
@@ -7309,7 +7576,7 @@
         <v>609</v>
       </c>
       <c r="B606" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.25">
@@ -7317,7 +7584,7 @@
         <v>610</v>
       </c>
       <c r="B607" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.25">
@@ -7325,7 +7592,7 @@
         <v>611</v>
       </c>
       <c r="B608" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.25">
@@ -7341,7 +7608,7 @@
         <v>613</v>
       </c>
       <c r="B610" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.25">
@@ -7349,7 +7616,7 @@
         <v>614</v>
       </c>
       <c r="B611" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.25">
@@ -7357,7 +7624,7 @@
         <v>615</v>
       </c>
       <c r="B612" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.25">
@@ -7365,7 +7632,7 @@
         <v>616</v>
       </c>
       <c r="B613" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.25">
@@ -7373,7 +7640,7 @@
         <v>617</v>
       </c>
       <c r="B614" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.25">
@@ -7381,7 +7648,7 @@
         <v>618</v>
       </c>
       <c r="B615" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.25">
@@ -7389,7 +7656,7 @@
         <v>619</v>
       </c>
       <c r="B616" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.25">
@@ -7397,7 +7664,7 @@
         <v>620</v>
       </c>
       <c r="B617" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.25">
@@ -7405,7 +7672,7 @@
         <v>621</v>
       </c>
       <c r="B618" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.25">
@@ -7413,7 +7680,7 @@
         <v>622</v>
       </c>
       <c r="B619" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.25">
@@ -7421,7 +7688,7 @@
         <v>623</v>
       </c>
       <c r="B620" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.25">
@@ -7429,7 +7696,7 @@
         <v>624</v>
       </c>
       <c r="B621" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.25">
@@ -7437,7 +7704,7 @@
         <v>625</v>
       </c>
       <c r="B622" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.25">
@@ -7445,7 +7712,7 @@
         <v>626</v>
       </c>
       <c r="B623" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.25">
@@ -7453,7 +7720,7 @@
         <v>627</v>
       </c>
       <c r="B624" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.25">
@@ -7461,7 +7728,7 @@
         <v>628</v>
       </c>
       <c r="B625" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.25">
@@ -7469,7 +7736,7 @@
         <v>629</v>
       </c>
       <c r="B626" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.25">
@@ -7477,7 +7744,7 @@
         <v>630</v>
       </c>
       <c r="B627" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.25">
@@ -7485,7 +7752,7 @@
         <v>631</v>
       </c>
       <c r="B628" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.25">
@@ -7493,7 +7760,7 @@
         <v>632</v>
       </c>
       <c r="B629" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.25">
@@ -7501,7 +7768,7 @@
         <v>633</v>
       </c>
       <c r="B630" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.25">
@@ -7509,7 +7776,7 @@
         <v>634</v>
       </c>
       <c r="B631" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.25">
@@ -7517,7 +7784,7 @@
         <v>635</v>
       </c>
       <c r="B632" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.25">
@@ -7525,7 +7792,7 @@
         <v>636</v>
       </c>
       <c r="B633" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.25">
@@ -7533,7 +7800,7 @@
         <v>637</v>
       </c>
       <c r="B634" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.25">
@@ -7541,7 +7808,7 @@
         <v>638</v>
       </c>
       <c r="B635" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.25">
@@ -7549,7 +7816,7 @@
         <v>639</v>
       </c>
       <c r="B636" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.25">
@@ -7557,7 +7824,7 @@
         <v>640</v>
       </c>
       <c r="B637" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.25">
@@ -7565,7 +7832,7 @@
         <v>641</v>
       </c>
       <c r="B638" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.25">
@@ -7573,7 +7840,7 @@
         <v>642</v>
       </c>
       <c r="B639" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.25">
@@ -7581,7 +7848,7 @@
         <v>643</v>
       </c>
       <c r="B640" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.25">
@@ -7589,7 +7856,7 @@
         <v>644</v>
       </c>
       <c r="B641" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.25">
@@ -7597,7 +7864,7 @@
         <v>645</v>
       </c>
       <c r="B642" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.25">
@@ -7605,7 +7872,7 @@
         <v>646</v>
       </c>
       <c r="B643" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.25">
@@ -7613,7 +7880,7 @@
         <v>647</v>
       </c>
       <c r="B644" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.25">
@@ -7621,7 +7888,7 @@
         <v>648</v>
       </c>
       <c r="B645" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.25">
@@ -7629,7 +7896,7 @@
         <v>649</v>
       </c>
       <c r="B646" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.25">
@@ -7637,7 +7904,7 @@
         <v>650</v>
       </c>
       <c r="B647" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.25">
@@ -7645,7 +7912,7 @@
         <v>651</v>
       </c>
       <c r="B648" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.25">
@@ -7653,7 +7920,7 @@
         <v>652</v>
       </c>
       <c r="B649" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.25">
@@ -7661,7 +7928,7 @@
         <v>653</v>
       </c>
       <c r="B650" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.25">
@@ -7669,7 +7936,7 @@
         <v>654</v>
       </c>
       <c r="B651" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.25">
@@ -7677,7 +7944,7 @@
         <v>655</v>
       </c>
       <c r="B652" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.25">
@@ -7685,7 +7952,7 @@
         <v>656</v>
       </c>
       <c r="B653" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.25">
@@ -7693,7 +7960,7 @@
         <v>657</v>
       </c>
       <c r="B654" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.25">
@@ -7701,7 +7968,7 @@
         <v>658</v>
       </c>
       <c r="B655" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.25">
@@ -7717,7 +7984,7 @@
         <v>660</v>
       </c>
       <c r="B657" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.25">
@@ -7725,7 +7992,7 @@
         <v>661</v>
       </c>
       <c r="B658" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.25">
@@ -7733,7 +8000,7 @@
         <v>662</v>
       </c>
       <c r="B659" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.25">
@@ -7741,7 +8008,7 @@
         <v>663</v>
       </c>
       <c r="B660" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.25">
@@ -7749,7 +8016,7 @@
         <v>664</v>
       </c>
       <c r="B661" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.25">
@@ -7757,7 +8024,7 @@
         <v>665</v>
       </c>
       <c r="B662" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.25">
@@ -7765,7 +8032,7 @@
         <v>666</v>
       </c>
       <c r="B663" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.25">
@@ -7773,7 +8040,7 @@
         <v>667</v>
       </c>
       <c r="B664" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.25">
@@ -7781,7 +8048,7 @@
         <v>668</v>
       </c>
       <c r="B665" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.25">
@@ -7789,7 +8056,7 @@
         <v>669</v>
       </c>
       <c r="B666" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.25">
@@ -7797,7 +8064,7 @@
         <v>670</v>
       </c>
       <c r="B667" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.25">
@@ -7805,7 +8072,7 @@
         <v>671</v>
       </c>
       <c r="B668" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.25">
@@ -7813,7 +8080,7 @@
         <v>672</v>
       </c>
       <c r="B669" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.25">
@@ -7821,7 +8088,7 @@
         <v>673</v>
       </c>
       <c r="B670" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.25">
@@ -7829,7 +8096,7 @@
         <v>674</v>
       </c>
       <c r="B671" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.25">
@@ -7837,7 +8104,7 @@
         <v>675</v>
       </c>
       <c r="B672" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.25">
@@ -7845,7 +8112,7 @@
         <v>676</v>
       </c>
       <c r="B673" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.25">
@@ -7853,7 +8120,7 @@
         <v>677</v>
       </c>
       <c r="B674" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.25">
@@ -7861,7 +8128,7 @@
         <v>678</v>
       </c>
       <c r="B675" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.25">
@@ -7869,7 +8136,7 @@
         <v>679</v>
       </c>
       <c r="B676" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.25">
@@ -7877,7 +8144,7 @@
         <v>680</v>
       </c>
       <c r="B677" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.25">
@@ -7885,7 +8152,647 @@
         <v>681</v>
       </c>
       <c r="B678" t="s">
-        <v>3</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A679" t="s">
+        <v>682</v>
+      </c>
+      <c r="B679" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A680" t="s">
+        <v>683</v>
+      </c>
+      <c r="B680" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A681" t="s">
+        <v>684</v>
+      </c>
+      <c r="B681" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A682" t="s">
+        <v>685</v>
+      </c>
+      <c r="B682" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A683" t="s">
+        <v>686</v>
+      </c>
+      <c r="B683" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A684" t="s">
+        <v>687</v>
+      </c>
+      <c r="B684" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A685" t="s">
+        <v>688</v>
+      </c>
+      <c r="B685" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A686" t="s">
+        <v>689</v>
+      </c>
+      <c r="B686" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A687" t="s">
+        <v>690</v>
+      </c>
+      <c r="B687" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A688" t="s">
+        <v>691</v>
+      </c>
+      <c r="B688" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A689" t="s">
+        <v>692</v>
+      </c>
+      <c r="B689" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A690" t="s">
+        <v>693</v>
+      </c>
+      <c r="B690" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A691" t="s">
+        <v>694</v>
+      </c>
+      <c r="B691" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A692" t="s">
+        <v>695</v>
+      </c>
+      <c r="B692" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A693" t="s">
+        <v>696</v>
+      </c>
+      <c r="B693" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A694" t="s">
+        <v>697</v>
+      </c>
+      <c r="B694" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A695" t="s">
+        <v>698</v>
+      </c>
+      <c r="B695" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A696" t="s">
+        <v>699</v>
+      </c>
+      <c r="B696" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A697" t="s">
+        <v>700</v>
+      </c>
+      <c r="B697" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A698" t="s">
+        <v>701</v>
+      </c>
+      <c r="B698" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A699" t="s">
+        <v>702</v>
+      </c>
+      <c r="B699" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A700" t="s">
+        <v>703</v>
+      </c>
+      <c r="B700" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A701" t="s">
+        <v>704</v>
+      </c>
+      <c r="B701" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A702" t="s">
+        <v>705</v>
+      </c>
+      <c r="B702" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A703" t="s">
+        <v>706</v>
+      </c>
+      <c r="B703" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A704" t="s">
+        <v>707</v>
+      </c>
+      <c r="B704" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A705" t="s">
+        <v>708</v>
+      </c>
+      <c r="B705" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A706" t="s">
+        <v>709</v>
+      </c>
+      <c r="B706" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A707" t="s">
+        <v>710</v>
+      </c>
+      <c r="B707" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A708" t="s">
+        <v>711</v>
+      </c>
+      <c r="B708" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A709" t="s">
+        <v>712</v>
+      </c>
+      <c r="B709" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A710" t="s">
+        <v>713</v>
+      </c>
+      <c r="B710" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A711" t="s">
+        <v>714</v>
+      </c>
+      <c r="B711" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A712" t="s">
+        <v>715</v>
+      </c>
+      <c r="B712" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A713" t="s">
+        <v>716</v>
+      </c>
+      <c r="B713" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A714" t="s">
+        <v>717</v>
+      </c>
+      <c r="B714" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A715" t="s">
+        <v>718</v>
+      </c>
+      <c r="B715" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A716" t="s">
+        <v>719</v>
+      </c>
+      <c r="B716" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A717" t="s">
+        <v>720</v>
+      </c>
+      <c r="B717" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A718" t="s">
+        <v>721</v>
+      </c>
+      <c r="B718" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A719" t="s">
+        <v>722</v>
+      </c>
+      <c r="B719" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A720" t="s">
+        <v>723</v>
+      </c>
+      <c r="B720" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A721" t="s">
+        <v>724</v>
+      </c>
+      <c r="B721" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A722" t="s">
+        <v>725</v>
+      </c>
+      <c r="B722" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A723" t="s">
+        <v>726</v>
+      </c>
+      <c r="B723" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A724" t="s">
+        <v>727</v>
+      </c>
+      <c r="B724" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A725" t="s">
+        <v>728</v>
+      </c>
+      <c r="B725" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A726" t="s">
+        <v>729</v>
+      </c>
+      <c r="B726" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A727" t="s">
+        <v>730</v>
+      </c>
+      <c r="B727" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A728" t="s">
+        <v>731</v>
+      </c>
+      <c r="B728" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A729" t="s">
+        <v>732</v>
+      </c>
+      <c r="B729" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A730" t="s">
+        <v>733</v>
+      </c>
+      <c r="B730" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A731" t="s">
+        <v>734</v>
+      </c>
+      <c r="B731" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A732" t="s">
+        <v>735</v>
+      </c>
+      <c r="B732" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A733" t="s">
+        <v>736</v>
+      </c>
+      <c r="B733" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A734" t="s">
+        <v>737</v>
+      </c>
+      <c r="B734" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A735" t="s">
+        <v>738</v>
+      </c>
+      <c r="B735" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A736" t="s">
+        <v>739</v>
+      </c>
+      <c r="B736" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A737" t="s">
+        <v>740</v>
+      </c>
+      <c r="B737" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A738" t="s">
+        <v>741</v>
+      </c>
+      <c r="B738" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A739" t="s">
+        <v>742</v>
+      </c>
+      <c r="B739" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A740" t="s">
+        <v>743</v>
+      </c>
+      <c r="B740" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A741" t="s">
+        <v>744</v>
+      </c>
+      <c r="B741" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A742" t="s">
+        <v>745</v>
+      </c>
+      <c r="B742" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A743" t="s">
+        <v>746</v>
+      </c>
+      <c r="B743" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A744" t="s">
+        <v>747</v>
+      </c>
+      <c r="B744" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A745" t="s">
+        <v>748</v>
+      </c>
+      <c r="B745" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A746" t="s">
+        <v>749</v>
+      </c>
+      <c r="B746" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A747" t="s">
+        <v>750</v>
+      </c>
+      <c r="B747" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A748" t="s">
+        <v>751</v>
+      </c>
+      <c r="B748" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A749" t="s">
+        <v>752</v>
+      </c>
+      <c r="B749" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A750" t="s">
+        <v>753</v>
+      </c>
+      <c r="B750" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A751" t="s">
+        <v>754</v>
+      </c>
+      <c r="B751" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A752" t="s">
+        <v>755</v>
+      </c>
+      <c r="B752" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A753" t="s">
+        <v>756</v>
+      </c>
+      <c r="B753" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A754" t="s">
+        <v>757</v>
+      </c>
+      <c r="B754" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A755" t="s">
+        <v>758</v>
+      </c>
+      <c r="B755" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A756" t="s">
+        <v>759</v>
+      </c>
+      <c r="B756" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A757" t="s">
+        <v>760</v>
+      </c>
+      <c r="B757" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A758" t="s">
+        <v>761</v>
+      </c>
+      <c r="B758" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
